--- a/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
@@ -1001,10 +1001,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
@@ -1001,10 +1001,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="288">
   <si>
     <t>Property</t>
   </si>
@@ -480,9 +480,6 @@
     <t>心エコー報告書</t>
   </si>
   <si>
-    <t>CAG 報告書、PCI 報告書を含む</t>
-  </si>
-  <si>
     <t>59282-4</t>
   </si>
   <si>
@@ -594,180 +591,180 @@
     <t>34109-9</t>
   </si>
   <si>
-    <t>記録※</t>
+    <t>記録</t>
+  </si>
+  <si>
+    <t>11492-6</t>
+  </si>
+  <si>
+    <t>既往症・理学的所見</t>
+  </si>
+  <si>
+    <t>11506-3</t>
+  </si>
+  <si>
+    <t>経過記録</t>
+  </si>
+  <si>
+    <t>28570-0</t>
+  </si>
+  <si>
+    <t>処置記録</t>
+  </si>
+  <si>
+    <t>28579-1</t>
+  </si>
+  <si>
+    <t>理学療法記録</t>
+  </si>
+  <si>
+    <t>28623-7</t>
+  </si>
+  <si>
+    <t>看護記録</t>
+  </si>
+  <si>
+    <t>34098-4</t>
+  </si>
+  <si>
+    <t>会議記録</t>
+  </si>
+  <si>
+    <t>34108-1</t>
+  </si>
+  <si>
+    <t>外来診療録</t>
+  </si>
+  <si>
+    <t>34112-3</t>
+  </si>
+  <si>
+    <t>入院診療録</t>
+  </si>
+  <si>
+    <t>34129-7</t>
+  </si>
+  <si>
+    <t>在宅記録</t>
+  </si>
+  <si>
+    <t>34750-0</t>
+  </si>
+  <si>
+    <t>麻酔記録</t>
+  </si>
+  <si>
+    <t>34751-8</t>
+  </si>
+  <si>
+    <t>術前麻酔評価</t>
+  </si>
+  <si>
+    <t>34821-9</t>
+  </si>
+  <si>
+    <t>薬局記録</t>
+  </si>
+  <si>
+    <t>34874-8</t>
+  </si>
+  <si>
+    <t>手術記録</t>
+  </si>
+  <si>
+    <t>34875-5</t>
+  </si>
+  <si>
+    <t>術後評価</t>
+  </si>
+  <si>
+    <t>34876-3</t>
+  </si>
+  <si>
+    <t>術前評価</t>
+  </si>
+  <si>
+    <t>51855-5</t>
+  </si>
+  <si>
+    <t>患者記録</t>
+  </si>
+  <si>
+    <t>68629-5</t>
+  </si>
+  <si>
+    <t>免疫アレルギ記録</t>
+  </si>
+  <si>
+    <t>68839-0</t>
+  </si>
+  <si>
+    <t>研究記録</t>
+  </si>
+  <si>
+    <t>75500-9</t>
+  </si>
+  <si>
+    <t>トリアージ記録</t>
+  </si>
+  <si>
+    <t>75492-9</t>
+  </si>
+  <si>
+    <t>リスク評価</t>
+  </si>
+  <si>
+    <t>77401-8</t>
+  </si>
+  <si>
+    <t>術前麻酔所見</t>
+  </si>
+  <si>
+    <t>18761-7</t>
+  </si>
+  <si>
+    <t>転科転棟引継</t>
+  </si>
+  <si>
+    <t>57057-2</t>
+  </si>
+  <si>
+    <t>分娩記録</t>
+  </si>
+  <si>
+    <t>29749-9</t>
+  </si>
+  <si>
+    <t>透析記録</t>
+  </si>
+  <si>
+    <t>75282-4</t>
+  </si>
+  <si>
+    <t>栄養評価記録</t>
+  </si>
+  <si>
+    <t>28656-7</t>
+  </si>
+  <si>
+    <t>MSW 記録</t>
+  </si>
+  <si>
+    <t>73709-8</t>
+  </si>
+  <si>
+    <t>処方疑義照会（記録）</t>
+  </si>
+  <si>
+    <t>Z0001</t>
+  </si>
+  <si>
+    <t>歴※</t>
   </si>
   <si>
     <t>日付（診療日）の概念と分類に関して、特定の日付がある文書は「記録」に分類され、複数の日付がある文書や日時を特定しないで作成する文書は「歴」に分類される。</t>
   </si>
   <si>
-    <t>11492-6</t>
-  </si>
-  <si>
-    <t>既往症・理学的所見</t>
-  </si>
-  <si>
-    <t>11506-3</t>
-  </si>
-  <si>
-    <t>経過記録</t>
-  </si>
-  <si>
-    <t>28570-0</t>
-  </si>
-  <si>
-    <t>処置記録</t>
-  </si>
-  <si>
-    <t>28579-1</t>
-  </si>
-  <si>
-    <t>理学療法記録</t>
-  </si>
-  <si>
-    <t>28623-7</t>
-  </si>
-  <si>
-    <t>看護記録</t>
-  </si>
-  <si>
-    <t>34098-4</t>
-  </si>
-  <si>
-    <t>会議記録</t>
-  </si>
-  <si>
-    <t>34108-1</t>
-  </si>
-  <si>
-    <t>外来診療録</t>
-  </si>
-  <si>
-    <t>34112-3</t>
-  </si>
-  <si>
-    <t>入院診療録</t>
-  </si>
-  <si>
-    <t>34129-7</t>
-  </si>
-  <si>
-    <t>在宅記録</t>
-  </si>
-  <si>
-    <t>34750-0</t>
-  </si>
-  <si>
-    <t>麻酔記録</t>
-  </si>
-  <si>
-    <t>34751-8</t>
-  </si>
-  <si>
-    <t>術前麻酔評価</t>
-  </si>
-  <si>
-    <t>34821-9</t>
-  </si>
-  <si>
-    <t>薬局記録</t>
-  </si>
-  <si>
-    <t>34874-8</t>
-  </si>
-  <si>
-    <t>手術記録</t>
-  </si>
-  <si>
-    <t>34875-5</t>
-  </si>
-  <si>
-    <t>術後評価</t>
-  </si>
-  <si>
-    <t>34876-3</t>
-  </si>
-  <si>
-    <t>術前評価</t>
-  </si>
-  <si>
-    <t>51855-5</t>
-  </si>
-  <si>
-    <t>患者記録</t>
-  </si>
-  <si>
-    <t>68629-5</t>
-  </si>
-  <si>
-    <t>免疫アレルギ記録</t>
-  </si>
-  <si>
-    <t>68839-0</t>
-  </si>
-  <si>
-    <t>研究記録</t>
-  </si>
-  <si>
-    <t>75500-9</t>
-  </si>
-  <si>
-    <t>トリアージ記録</t>
-  </si>
-  <si>
-    <t>75492-9</t>
-  </si>
-  <si>
-    <t>リスク評価</t>
-  </si>
-  <si>
-    <t>77401-8</t>
-  </si>
-  <si>
-    <t>術前麻酔所見</t>
-  </si>
-  <si>
-    <t>18761-7</t>
-  </si>
-  <si>
-    <t>転科転棟引継</t>
-  </si>
-  <si>
-    <t>57057-2</t>
-  </si>
-  <si>
-    <t>分娩記録</t>
-  </si>
-  <si>
-    <t>29749-9</t>
-  </si>
-  <si>
-    <t>透析記録</t>
-  </si>
-  <si>
-    <t>75282-4</t>
-  </si>
-  <si>
-    <t>栄養評価記録</t>
-  </si>
-  <si>
-    <t>28656-7</t>
-  </si>
-  <si>
-    <t>MSW 記録</t>
-  </si>
-  <si>
-    <t>73709-8</t>
-  </si>
-  <si>
-    <t>処方疑義照会（記録）</t>
-  </si>
-  <si>
-    <t>Z0001</t>
-  </si>
-  <si>
-    <t>歴※</t>
-  </si>
-  <si>
     <t>11504-8</t>
   </si>
   <si>
@@ -798,6 +795,12 @@
     <t>要約</t>
   </si>
   <si>
+    <t>60591-5</t>
+  </si>
+  <si>
+    <t>サマリ</t>
+  </si>
+  <si>
     <t>18842-5</t>
   </si>
   <si>
@@ -810,12 +813,6 @@
     <t>看護サマリ</t>
   </si>
   <si>
-    <t>60591-5</t>
-  </si>
-  <si>
-    <t>サマリ</t>
-  </si>
-  <si>
     <t>78454-6</t>
   </si>
   <si>
@@ -849,19 +846,19 @@
     <t>57133-1</t>
   </si>
   <si>
-    <t>紹介状</t>
+    <t>診療情報提供書</t>
+  </si>
+  <si>
+    <t>11503-0</t>
+  </si>
+  <si>
+    <t>カルテ</t>
   </si>
   <si>
     <t>64289-2</t>
   </si>
   <si>
     <t>１号用紙</t>
-  </si>
-  <si>
-    <t>11503-0</t>
-  </si>
-  <si>
-    <t>カルテ</t>
   </si>
   <si>
     <t>51897-7</t>
@@ -1874,19 +1871,17 @@
       <c r="C56" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D56" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B57" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -1895,10 +1890,10 @@
         <v>46</v>
       </c>
       <c r="B58" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -1907,10 +1902,10 @@
         <v>46</v>
       </c>
       <c r="B59" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -1919,10 +1914,10 @@
         <v>46</v>
       </c>
       <c r="B60" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -1931,10 +1926,10 @@
         <v>46</v>
       </c>
       <c r="B61" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -1943,10 +1938,10 @@
         <v>46</v>
       </c>
       <c r="B62" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -1955,10 +1950,10 @@
         <v>46</v>
       </c>
       <c r="B63" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C63" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -1967,10 +1962,10 @@
         <v>46</v>
       </c>
       <c r="B64" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C64" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -1979,10 +1974,10 @@
         <v>46</v>
       </c>
       <c r="B65" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="D65" s="2"/>
     </row>
@@ -1991,10 +1986,10 @@
         <v>46</v>
       </c>
       <c r="B66" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="D66" s="2"/>
     </row>
@@ -2003,10 +1998,10 @@
         <v>46</v>
       </c>
       <c r="B67" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="D67" s="2"/>
     </row>
@@ -2015,10 +2010,10 @@
         <v>46</v>
       </c>
       <c r="B68" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="D68" s="2"/>
     </row>
@@ -2027,10 +2022,10 @@
         <v>46</v>
       </c>
       <c r="B69" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C69" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="D69" s="2"/>
     </row>
@@ -2039,10 +2034,10 @@
         <v>46</v>
       </c>
       <c r="B70" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C70" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -2051,10 +2046,10 @@
         <v>46</v>
       </c>
       <c r="B71" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C71" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -2063,10 +2058,10 @@
         <v>46</v>
       </c>
       <c r="B72" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C72" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="D72" s="2"/>
     </row>
@@ -2075,10 +2070,10 @@
         <v>46</v>
       </c>
       <c r="B73" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C73" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="D73" s="2"/>
     </row>
@@ -2087,10 +2082,10 @@
         <v>46</v>
       </c>
       <c r="B74" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C74" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -2099,24 +2094,22 @@
         <v>43</v>
       </c>
       <c r="B75" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C75" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="D75" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="D75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D76" s="2"/>
     </row>
@@ -2125,10 +2118,10 @@
         <v>46</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -2137,10 +2130,10 @@
         <v>46</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -2149,10 +2142,10 @@
         <v>46</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D79" s="2"/>
     </row>
@@ -2161,10 +2154,10 @@
         <v>46</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -2173,10 +2166,10 @@
         <v>46</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D81" s="2"/>
     </row>
@@ -2185,10 +2178,10 @@
         <v>46</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D82" s="2"/>
     </row>
@@ -2197,10 +2190,10 @@
         <v>46</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D83" s="2"/>
     </row>
@@ -2209,10 +2202,10 @@
         <v>46</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D84" s="2"/>
     </row>
@@ -2221,10 +2214,10 @@
         <v>46</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D85" s="2"/>
     </row>
@@ -2233,10 +2226,10 @@
         <v>46</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D86" s="2"/>
     </row>
@@ -2245,10 +2238,10 @@
         <v>46</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D87" s="2"/>
     </row>
@@ -2257,10 +2250,10 @@
         <v>46</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D88" s="2"/>
     </row>
@@ -2269,10 +2262,10 @@
         <v>46</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D89" s="2"/>
     </row>
@@ -2281,10 +2274,10 @@
         <v>46</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D90" s="2"/>
     </row>
@@ -2293,10 +2286,10 @@
         <v>46</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D91" s="2"/>
     </row>
@@ -2305,10 +2298,10 @@
         <v>46</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D92" s="2"/>
     </row>
@@ -2317,10 +2310,10 @@
         <v>46</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D93" s="2"/>
     </row>
@@ -2329,10 +2322,10 @@
         <v>46</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D94" s="2"/>
     </row>
@@ -2341,10 +2334,10 @@
         <v>46</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D95" s="2"/>
     </row>
@@ -2353,10 +2346,10 @@
         <v>46</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D96" s="2"/>
     </row>
@@ -2365,10 +2358,10 @@
         <v>46</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D97" s="2"/>
     </row>
@@ -2377,10 +2370,10 @@
         <v>46</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D98" s="2"/>
     </row>
@@ -2389,10 +2382,10 @@
         <v>46</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D99" s="2"/>
     </row>
@@ -2401,10 +2394,10 @@
         <v>46</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D100" s="2"/>
     </row>
@@ -2413,10 +2406,10 @@
         <v>46</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D101" s="2"/>
     </row>
@@ -2425,10 +2418,10 @@
         <v>46</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D102" s="2"/>
     </row>
@@ -2437,13 +2430,13 @@
         <v>43</v>
       </c>
       <c r="B103" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="D103" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="D103" t="s" s="2">
-        <v>194</v>
       </c>
     </row>
     <row r="104">
@@ -2451,10 +2444,10 @@
         <v>46</v>
       </c>
       <c r="B104" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C104" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="D104" s="2"/>
     </row>
@@ -2463,10 +2456,10 @@
         <v>46</v>
       </c>
       <c r="B105" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C105" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="D105" s="2"/>
     </row>
@@ -2475,10 +2468,10 @@
         <v>46</v>
       </c>
       <c r="B106" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C106" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="D106" s="2"/>
     </row>
@@ -2487,10 +2480,10 @@
         <v>46</v>
       </c>
       <c r="B107" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C107" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="D107" s="2"/>
     </row>
@@ -2499,10 +2492,10 @@
         <v>43</v>
       </c>
       <c r="B108" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C108" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="D108" s="2"/>
     </row>
@@ -2511,10 +2504,10 @@
         <v>46</v>
       </c>
       <c r="B109" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="C109" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="D109" s="2"/>
     </row>
@@ -2523,10 +2516,10 @@
         <v>46</v>
       </c>
       <c r="B110" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C110" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="D110" s="2"/>
     </row>
@@ -2535,10 +2528,10 @@
         <v>46</v>
       </c>
       <c r="B111" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C111" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="D111" s="2"/>
     </row>
@@ -2547,10 +2540,10 @@
         <v>43</v>
       </c>
       <c r="B112" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C112" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="D112" s="2"/>
     </row>
@@ -2559,10 +2552,10 @@
         <v>46</v>
       </c>
       <c r="B113" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C113" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="C113" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="D113" s="2"/>
     </row>
@@ -2571,10 +2564,10 @@
         <v>43</v>
       </c>
       <c r="B114" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C114" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="D114" s="2"/>
     </row>
@@ -2583,10 +2576,10 @@
         <v>46</v>
       </c>
       <c r="B115" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C115" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="C115" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="D115" s="2"/>
     </row>
@@ -2595,10 +2588,10 @@
         <v>46</v>
       </c>
       <c r="B116" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C116" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="C116" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="D116" s="2"/>
     </row>
@@ -2607,34 +2600,34 @@
         <v>43</v>
       </c>
       <c r="B117" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C117" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="C117" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="D117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B118" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C118" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B119" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C119" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="D119" s="2"/>
     </row>
@@ -2643,10 +2636,10 @@
         <v>43</v>
       </c>
       <c r="B120" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C120" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="C120" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="D120" s="2"/>
     </row>
@@ -2655,10 +2648,10 @@
         <v>46</v>
       </c>
       <c r="B121" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C121" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="C121" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="D121" s="2"/>
     </row>
@@ -2667,10 +2660,10 @@
         <v>43</v>
       </c>
       <c r="B122" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C122" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="C122" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="D122" s="2"/>
     </row>

--- a/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-documentcodes-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>
